--- a/Corte de Apelaciones de Arica/1-2013302#3#1-C-ingresos-2021-12.xlsx
+++ b/Corte de Apelaciones de Arica/1-2013302#3#1-C-ingresos-2021-12.xlsx
@@ -94,37 +94,37 @@
     <t>Demencia C/Certificado Compin, Interdicción Por</t>
   </si>
   <si>
+    <t>Arbitro Y Derivados, Designacion De</t>
+  </si>
+  <si>
+    <t>Otros Ordinarios</t>
+  </si>
+  <si>
+    <t>Prescrip.extinción De Acciones, Adquisición De Derechos Y Ot</t>
+  </si>
+  <si>
+    <t>Perjuicios, Indemnización De</t>
+  </si>
+  <si>
+    <t>Arrendador,Restitución Por Extinción Derecho</t>
+  </si>
+  <si>
+    <t>Precario, Inc. 2º Art. 2.195 C.c</t>
+  </si>
+  <si>
+    <t>Notificaciones Judiciales Varias, Incluye Árbitro Voluntar</t>
+  </si>
+  <si>
+    <t>Arrendamiento,Desahucio Contrato Bienes Raíces Urbanos</t>
+  </si>
+  <si>
+    <t>Muerte Presunta</t>
+  </si>
+  <si>
+    <t>Expropiación, Consignación Monto Provisorio Art.17 D.l.2186</t>
+  </si>
+  <si>
     <t>Arrendamiento,Restitución Por Expiración Tiempo Estipulado</t>
-  </si>
-  <si>
-    <t>Otros Ordinarios</t>
-  </si>
-  <si>
-    <t>Prescrip.extinción De Acciones, Adquisición De Derechos Y Ot</t>
-  </si>
-  <si>
-    <t>Perjuicios, Indemnización De</t>
-  </si>
-  <si>
-    <t>Arrendador,Restitución Por Extinción Derecho</t>
-  </si>
-  <si>
-    <t>Precario, Inc. 2º Art. 2.195 C.c</t>
-  </si>
-  <si>
-    <t>Notificaciones Judiciales Varias, Incluye Árbitro Voluntar</t>
-  </si>
-  <si>
-    <t>Arbitro Y Derivados, Designacion De</t>
-  </si>
-  <si>
-    <t>Muerte Presunta</t>
-  </si>
-  <si>
-    <t>Expropiación, Consignación Monto Provisorio Art.17 D.l.2186</t>
-  </si>
-  <si>
-    <t>Arrendamiento,Desahucio Contrato Bienes Raíces Urbanos</t>
   </si>
   <si>
     <t>Corte De Apelaciones De Arica</t>
